--- a/data/PlantingData.xlsx
+++ b/data/PlantingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D61C110-94EC-4EF2-A96D-CD58EDF34AAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86A129-A842-434B-AE46-A5BCB8393630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="70">
   <si>
     <t>Ramet</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>PI2</t>
-  </si>
-  <si>
-    <t>Pollen</t>
   </si>
   <si>
     <t>CMS_heat</t>
@@ -262,15 +259,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,13 +281,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,21 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2BDB9-DDA1-4456-B96B-B7C6BC14A59C}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96:L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,16 +665,13 @@
         <v>60</v>
       </c>
       <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -677,20 +694,19 @@
         <v>44180</v>
       </c>
       <c r="H2" s="1">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="I2" s="1">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="J2" s="1">
-        <v>44309</v>
+        <v>44254</v>
       </c>
       <c r="K2" s="1">
-        <v>44254</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -712,18 +728,20 @@
       <c r="G3" s="1">
         <v>44180</v>
       </c>
+      <c r="H3" s="1">
+        <v>44253</v>
+      </c>
       <c r="I3" s="1">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="J3" s="1">
-        <v>44309</v>
+        <v>44254</v>
       </c>
       <c r="K3" s="1">
-        <v>44254</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -745,18 +763,20 @@
       <c r="G4" s="1">
         <v>44180</v>
       </c>
+      <c r="H4" s="1">
+        <v>44253</v>
+      </c>
       <c r="I4" s="1">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="J4" s="1">
-        <v>44309</v>
+        <v>44254</v>
       </c>
       <c r="K4" s="1">
-        <v>44254</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -778,18 +798,20 @@
       <c r="G5" s="1">
         <v>44180</v>
       </c>
+      <c r="H5" s="1">
+        <v>44253</v>
+      </c>
       <c r="I5" s="1">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="J5" s="1">
-        <v>44309</v>
+        <v>44260</v>
       </c>
       <c r="K5" s="1">
-        <v>44260</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -811,18 +833,20 @@
       <c r="G6" s="1">
         <v>44180</v>
       </c>
+      <c r="H6" s="1">
+        <v>44253</v>
+      </c>
       <c r="I6" s="1">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="J6" s="1">
-        <v>44309</v>
+        <v>44254</v>
       </c>
       <c r="K6" s="1">
-        <v>44254</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -844,18 +868,20 @@
       <c r="G7" s="1">
         <v>44187</v>
       </c>
+      <c r="H7" s="1">
+        <v>44260</v>
+      </c>
       <c r="I7" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J7" s="1">
         <v>44260</v>
       </c>
-      <c r="J7" s="1">
-        <v>44316</v>
-      </c>
       <c r="K7" s="1">
-        <v>44260</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -877,18 +903,20 @@
       <c r="G8" s="1">
         <v>44187</v>
       </c>
+      <c r="H8" s="1">
+        <v>44295</v>
+      </c>
       <c r="I8" s="1">
-        <v>44295</v>
+        <v>44316</v>
       </c>
       <c r="J8" s="1">
-        <v>44316</v>
+        <v>44282</v>
       </c>
       <c r="K8" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -910,18 +938,20 @@
       <c r="G9" s="1">
         <v>44187</v>
       </c>
+      <c r="H9" s="1">
+        <v>44260</v>
+      </c>
       <c r="I9" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J9" s="1">
         <v>44260</v>
       </c>
-      <c r="J9" s="1">
-        <v>44316</v>
-      </c>
       <c r="K9" s="1">
-        <v>44260</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -943,18 +973,20 @@
       <c r="G10" s="1">
         <v>44187</v>
       </c>
+      <c r="H10" s="1">
+        <v>44260</v>
+      </c>
       <c r="I10" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J10" s="1">
         <v>44260</v>
       </c>
-      <c r="J10" s="1">
-        <v>44316</v>
-      </c>
       <c r="K10" s="1">
-        <v>44260</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -965,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -976,18 +1008,20 @@
       <c r="G11" s="1">
         <v>44187</v>
       </c>
+      <c r="H11" s="1">
+        <v>44260</v>
+      </c>
       <c r="I11" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J11" s="1">
         <v>44260</v>
       </c>
-      <c r="J11" s="1">
-        <v>44316</v>
-      </c>
       <c r="K11" s="1">
-        <v>44260</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1009,18 +1043,20 @@
       <c r="G12" s="1">
         <v>44211</v>
       </c>
+      <c r="H12" s="1">
+        <v>44282</v>
+      </c>
       <c r="I12" s="1">
+        <v>44323</v>
+      </c>
+      <c r="J12" s="1">
         <v>44282</v>
       </c>
-      <c r="J12" s="1">
-        <v>44323</v>
-      </c>
       <c r="K12" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1042,18 +1078,20 @@
       <c r="G13" s="1">
         <v>44211</v>
       </c>
+      <c r="H13" s="1">
+        <v>44282</v>
+      </c>
       <c r="I13" s="1">
+        <v>44323</v>
+      </c>
+      <c r="J13" s="1">
         <v>44282</v>
       </c>
-      <c r="J13" s="1">
-        <v>44323</v>
-      </c>
       <c r="K13" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1075,18 +1113,20 @@
       <c r="G14" s="1">
         <v>44211</v>
       </c>
+      <c r="H14" s="1">
+        <v>44282</v>
+      </c>
       <c r="I14" s="1">
+        <v>44323</v>
+      </c>
+      <c r="J14" s="1">
         <v>44282</v>
       </c>
-      <c r="J14" s="1">
-        <v>44323</v>
-      </c>
       <c r="K14" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1108,18 +1148,20 @@
       <c r="G15" s="1">
         <v>44211</v>
       </c>
+      <c r="H15" s="1">
+        <v>44282</v>
+      </c>
       <c r="I15" s="1">
+        <v>44323</v>
+      </c>
+      <c r="J15" s="1">
         <v>44282</v>
       </c>
-      <c r="J15" s="1">
-        <v>44323</v>
-      </c>
       <c r="K15" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1141,18 +1183,20 @@
       <c r="G16" s="1">
         <v>44211</v>
       </c>
+      <c r="H16" s="1">
+        <v>44282</v>
+      </c>
       <c r="I16" s="1">
+        <v>44323</v>
+      </c>
+      <c r="J16" s="1">
         <v>44282</v>
       </c>
-      <c r="J16" s="1">
-        <v>44323</v>
-      </c>
       <c r="K16" s="1">
-        <v>44282</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1174,15 +1218,20 @@
       <c r="G17" s="1">
         <v>44218</v>
       </c>
+      <c r="H17" s="1">
+        <v>44289</v>
+      </c>
       <c r="I17" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J17" s="1">
         <v>44289</v>
       </c>
       <c r="K17" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1204,15 +1253,20 @@
       <c r="G18" s="1">
         <v>44218</v>
       </c>
+      <c r="H18" s="1">
+        <v>44289</v>
+      </c>
       <c r="I18" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J18" s="1">
         <v>44289</v>
       </c>
       <c r="K18" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1234,15 +1288,20 @@
       <c r="G19" s="1">
         <v>44218</v>
       </c>
+      <c r="H19" s="1">
+        <v>44289</v>
+      </c>
       <c r="I19" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J19" s="1">
         <v>44289</v>
       </c>
       <c r="K19" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1264,15 +1323,20 @@
       <c r="G20" s="1">
         <v>44218</v>
       </c>
+      <c r="H20" s="1">
+        <v>44289</v>
+      </c>
       <c r="I20" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J20" s="1">
         <v>44289</v>
       </c>
       <c r="K20" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1294,15 +1358,20 @@
       <c r="G21" s="1">
         <v>44218</v>
       </c>
+      <c r="H21" s="1">
+        <v>44289</v>
+      </c>
       <c r="I21" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J21" s="1">
         <v>44289</v>
       </c>
       <c r="K21" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1324,15 +1393,20 @@
       <c r="G22" s="1">
         <v>44218</v>
       </c>
+      <c r="H22" s="1">
+        <v>44289</v>
+      </c>
       <c r="I22" s="1">
+        <v>44328</v>
+      </c>
+      <c r="J22" s="1">
         <v>44289</v>
       </c>
       <c r="K22" s="1">
-        <v>44289</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -1354,9 +1428,20 @@
       <c r="G23" s="1">
         <v>44260</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44337</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44315</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
@@ -1378,9 +1463,20 @@
       <c r="G24" s="1">
         <v>44260</v>
       </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44337</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44315</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -1402,9 +1498,20 @@
       <c r="G25" s="1">
         <v>44260</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44337</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44315</v>
+      </c>
+      <c r="K25" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1426,9 +1533,20 @@
       <c r="G26" s="1">
         <v>44260</v>
       </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44337</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44315</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -1450,9 +1568,20 @@
       <c r="G27" s="1">
         <v>44260</v>
       </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44337</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44315</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1474,15 +1603,20 @@
       <c r="G28" s="1">
         <v>44236</v>
       </c>
+      <c r="H28" s="1">
+        <v>44295</v>
+      </c>
       <c r="I28" s="1">
-        <v>44295</v>
+        <v>44331</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44294</v>
       </c>
       <c r="K28" s="1">
-        <v>44295</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1504,15 +1638,20 @@
       <c r="G29" s="1">
         <v>44236</v>
       </c>
+      <c r="H29" s="1">
+        <v>44295</v>
+      </c>
       <c r="I29" s="1">
-        <v>44295</v>
+        <v>44331</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44294</v>
       </c>
       <c r="K29" s="1">
-        <v>44295</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1534,8 +1673,12 @@
       <c r="G30" s="1">
         <v>44236</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1557,8 +1700,12 @@
       <c r="G31" s="1">
         <v>44236</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1580,15 +1727,20 @@
       <c r="G32" s="1">
         <v>44236</v>
       </c>
+      <c r="H32" s="1">
+        <v>44295</v>
+      </c>
       <c r="I32" s="1">
-        <v>44295</v>
+        <v>44331</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44294</v>
       </c>
       <c r="K32" s="1">
-        <v>44295</v>
-      </c>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1611,17 +1763,19 @@
         <v>44246</v>
       </c>
       <c r="H33" s="1">
-        <v>44297</v>
+        <v>44301</v>
       </c>
       <c r="I33" s="1">
+        <v>44334</v>
+      </c>
+      <c r="J33" s="1">
         <v>44301</v>
       </c>
       <c r="K33" s="1">
-        <v>44301</v>
-      </c>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1644,17 +1798,19 @@
         <v>44246</v>
       </c>
       <c r="H34" s="1">
-        <v>44297</v>
+        <v>44301</v>
       </c>
       <c r="I34" s="1">
+        <v>44334</v>
+      </c>
+      <c r="J34" s="1">
         <v>44301</v>
       </c>
       <c r="K34" s="1">
-        <v>44301</v>
-      </c>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1676,15 +1832,20 @@
       <c r="G35" s="1">
         <v>44246</v>
       </c>
+      <c r="H35" s="1">
+        <v>44301</v>
+      </c>
       <c r="I35" s="1">
+        <v>44334</v>
+      </c>
+      <c r="J35" s="1">
         <v>44301</v>
       </c>
       <c r="K35" s="1">
-        <v>44301</v>
-      </c>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1706,15 +1867,20 @@
       <c r="G36" s="1">
         <v>44246</v>
       </c>
+      <c r="H36" s="1">
+        <v>44301</v>
+      </c>
       <c r="I36" s="1">
+        <v>44334</v>
+      </c>
+      <c r="J36" s="1">
         <v>44301</v>
       </c>
       <c r="K36" s="1">
-        <v>44301</v>
-      </c>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1736,15 +1902,20 @@
       <c r="G37" s="1">
         <v>44246</v>
       </c>
+      <c r="H37" s="1">
+        <v>44301</v>
+      </c>
       <c r="I37" s="1">
+        <v>44334</v>
+      </c>
+      <c r="J37" s="1">
         <v>44301</v>
       </c>
       <c r="K37" s="1">
-        <v>44301</v>
-      </c>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1766,15 +1937,20 @@
       <c r="G38" s="1">
         <v>44253</v>
       </c>
+      <c r="H38" s="1">
+        <v>44309</v>
+      </c>
       <c r="I38" s="1">
+        <v>44347</v>
+      </c>
+      <c r="J38" s="1">
         <v>44309</v>
       </c>
       <c r="K38" s="1">
-        <v>44309</v>
-      </c>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1796,15 +1972,20 @@
       <c r="G39" s="1">
         <v>44253</v>
       </c>
+      <c r="H39" s="1">
+        <v>44309</v>
+      </c>
       <c r="I39" s="1">
+        <v>44347</v>
+      </c>
+      <c r="J39" s="1">
         <v>44309</v>
       </c>
       <c r="K39" s="1">
-        <v>44309</v>
-      </c>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1826,15 +2007,20 @@
       <c r="G40" s="1">
         <v>44253</v>
       </c>
+      <c r="H40" s="1">
+        <v>44309</v>
+      </c>
       <c r="I40" s="1">
+        <v>44347</v>
+      </c>
+      <c r="J40" s="1">
         <v>44309</v>
       </c>
       <c r="K40" s="1">
-        <v>44309</v>
-      </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1856,15 +2042,20 @@
       <c r="G41" s="1">
         <v>44253</v>
       </c>
+      <c r="H41" s="1">
+        <v>44309</v>
+      </c>
       <c r="I41" s="1">
+        <v>44347</v>
+      </c>
+      <c r="J41" s="1">
         <v>44309</v>
       </c>
       <c r="K41" s="1">
-        <v>44309</v>
-      </c>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1886,15 +2077,20 @@
       <c r="G42" s="1">
         <v>44253</v>
       </c>
+      <c r="H42" s="1">
+        <v>44309</v>
+      </c>
       <c r="I42" s="1">
+        <v>44347</v>
+      </c>
+      <c r="J42" s="1">
         <v>44309</v>
       </c>
       <c r="K42" s="1">
-        <v>44309</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1905,7 +2101,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
         <v>51</v>
@@ -1916,15 +2112,20 @@
       <c r="G43" s="1">
         <v>44267</v>
       </c>
+      <c r="H43" s="1">
+        <v>44371</v>
+      </c>
       <c r="I43" s="1">
-        <v>44316</v>
+        <v>44350</v>
+      </c>
+      <c r="J43" s="1">
+        <v>44371</v>
       </c>
       <c r="K43" s="1">
-        <v>44315</v>
-      </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1946,15 +2147,20 @@
       <c r="G44" s="1">
         <v>44267</v>
       </c>
+      <c r="H44" s="1">
+        <v>44371</v>
+      </c>
       <c r="I44" s="1">
-        <v>44316</v>
+        <v>44350</v>
+      </c>
+      <c r="J44" s="1">
+        <v>44371</v>
       </c>
       <c r="K44" s="1">
-        <v>44315</v>
-      </c>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1976,14 +2182,20 @@
       <c r="G45" s="1">
         <v>44267</v>
       </c>
+      <c r="H45" s="1">
+        <v>44371</v>
+      </c>
       <c r="I45" s="1">
-        <v>44316</v>
+        <v>44350</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44371</v>
       </c>
       <c r="K45" s="1">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2005,14 +2217,20 @@
       <c r="G46" s="1">
         <v>44267</v>
       </c>
+      <c r="H46" s="1">
+        <v>44371</v>
+      </c>
       <c r="I46" s="1">
-        <v>44316</v>
+        <v>44350</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44371</v>
       </c>
       <c r="K46" s="1">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2034,14 +2252,12 @@
       <c r="G47" s="1">
         <v>44267</v>
       </c>
-      <c r="I47" s="1">
-        <v>44316</v>
-      </c>
-      <c r="K47" s="1">
-        <v>44315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2052,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2063,15 +2279,20 @@
       <c r="G48" s="1">
         <v>44274</v>
       </c>
+      <c r="H48" s="1">
+        <v>44323</v>
+      </c>
       <c r="I48" s="1">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44325</v>
       </c>
       <c r="K48" s="1">
-        <v>44325</v>
-      </c>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2093,15 +2314,20 @@
       <c r="G49" s="1">
         <v>44274</v>
       </c>
+      <c r="H49" s="1">
+        <v>44323</v>
+      </c>
       <c r="I49" s="1">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="J49" s="1">
+        <v>44325</v>
       </c>
       <c r="K49" s="1">
-        <v>44325</v>
-      </c>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2338,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -2123,15 +2349,20 @@
       <c r="G50" s="1">
         <v>44274</v>
       </c>
+      <c r="H50" s="1">
+        <v>44323</v>
+      </c>
       <c r="I50" s="1">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44325</v>
       </c>
       <c r="K50" s="1">
-        <v>44325</v>
-      </c>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2142,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>55</v>
@@ -2153,15 +2384,20 @@
       <c r="G51" s="1">
         <v>44274</v>
       </c>
+      <c r="H51" s="1">
+        <v>44323</v>
+      </c>
       <c r="I51" s="1">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44325</v>
       </c>
       <c r="K51" s="1">
-        <v>44325</v>
-      </c>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2184,17 +2420,19 @@
         <v>44274</v>
       </c>
       <c r="H52" s="1">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="I52" s="1">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="J52" s="1">
+        <v>44325</v>
       </c>
       <c r="K52" s="1">
-        <v>44325</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2205,7 +2443,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -2216,11 +2454,22 @@
       <c r="G53" s="1">
         <v>44274</v>
       </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H53" s="1">
+        <v>44371</v>
+      </c>
+      <c r="I53" s="1">
+        <v>44354</v>
+      </c>
+      <c r="J53" s="1">
+        <v>44371</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -2240,10 +2489,22 @@
       <c r="G54" s="1">
         <v>44282</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H54" s="1">
+        <v>44337</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J54" s="1">
+        <v>44337</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -2263,10 +2524,22 @@
       <c r="G55" s="1">
         <v>44282</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H55" s="1">
+        <v>44337</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J55" s="1">
+        <v>44337</v>
+      </c>
+      <c r="K55" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -2286,10 +2559,22 @@
       <c r="G56" s="1">
         <v>44282</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H56" s="1">
+        <v>44337</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J56" s="1">
+        <v>44337</v>
+      </c>
+      <c r="K56" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -2309,10 +2594,22 @@
       <c r="G57" s="1">
         <v>44282</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H57" s="1">
+        <v>44337</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J57" s="1">
+        <v>44337</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>11</v>
@@ -2332,10 +2629,22 @@
       <c r="G58" s="1">
         <v>44282</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H58" s="1">
+        <v>44337</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44356</v>
+      </c>
+      <c r="J58" s="1">
+        <v>44337</v>
+      </c>
+      <c r="K58" s="1">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -2355,10 +2664,22 @@
       <c r="G59" s="1">
         <v>44288</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="1">
+        <v>44344</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44363</v>
+      </c>
+      <c r="J59" s="1">
+        <v>44344</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -2378,10 +2699,22 @@
       <c r="G60" s="1">
         <v>44288</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="1">
+        <v>44344</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44363</v>
+      </c>
+      <c r="J60" s="1">
+        <v>44344</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -2401,10 +2734,22 @@
       <c r="G61" s="1">
         <v>44288</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H61" s="1">
+        <v>44344</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44363</v>
+      </c>
+      <c r="J61" s="1">
+        <v>44344</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -2424,10 +2769,22 @@
       <c r="G62" s="1">
         <v>44288</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H62" s="1">
+        <v>44344</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44363</v>
+      </c>
+      <c r="J62" s="1">
+        <v>44344</v>
+      </c>
+      <c r="K62" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -2447,10 +2804,22 @@
       <c r="G63" s="1">
         <v>44288</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="1">
+        <v>44344</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44363</v>
+      </c>
+      <c r="J63" s="1">
+        <v>44344</v>
+      </c>
+      <c r="K63" s="1">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>13</v>
@@ -2459,7 +2828,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
         <v>54</v>
@@ -2470,10 +2839,22 @@
       <c r="G64" s="1">
         <v>44294</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="1">
+        <v>44351</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44365</v>
+      </c>
+      <c r="J64" s="1">
+        <v>44351</v>
+      </c>
+      <c r="K64" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>13</v>
@@ -2493,10 +2874,22 @@
       <c r="G65" s="1">
         <v>44294</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="1">
+        <v>44351</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44365</v>
+      </c>
+      <c r="J65" s="1">
+        <v>44351</v>
+      </c>
+      <c r="K65" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>13</v>
@@ -2516,10 +2909,22 @@
       <c r="G66" s="1">
         <v>44294</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="1">
+        <v>44351</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44365</v>
+      </c>
+      <c r="J66" s="1">
+        <v>44351</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>13</v>
@@ -2539,10 +2944,22 @@
       <c r="G67" s="1">
         <v>44294</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="1">
+        <v>44351</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44365</v>
+      </c>
+      <c r="J67" s="1">
+        <v>44351</v>
+      </c>
+      <c r="K67" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>13</v>
@@ -2562,10 +2979,22 @@
       <c r="G68" s="1">
         <v>44294</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="1">
+        <v>44351</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44365</v>
+      </c>
+      <c r="J68" s="1">
+        <v>44351</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -2574,7 +3003,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
@@ -2585,10 +3014,22 @@
       <c r="G69" s="1">
         <v>44301</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="1">
+        <v>44358</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44372</v>
+      </c>
+      <c r="J69" s="1">
+        <v>44358</v>
+      </c>
+      <c r="K69" s="1">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>14</v>
@@ -2608,10 +3049,22 @@
       <c r="G70" s="1">
         <v>44301</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="1">
+        <v>44358</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44372</v>
+      </c>
+      <c r="J70" s="1">
+        <v>44358</v>
+      </c>
+      <c r="K70" s="1">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -2631,10 +3084,22 @@
       <c r="G71" s="1">
         <v>44301</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="1">
+        <v>44358</v>
+      </c>
+      <c r="I71" s="1">
+        <v>44372</v>
+      </c>
+      <c r="J71" s="1">
+        <v>44358</v>
+      </c>
+      <c r="K71" s="1">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>14</v>
@@ -2654,10 +3119,22 @@
       <c r="G72" s="1">
         <v>44301</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="1">
+        <v>44358</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44372</v>
+      </c>
+      <c r="J72" s="1">
+        <v>44358</v>
+      </c>
+      <c r="K72" s="1">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>14</v>
@@ -2666,7 +3143,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" t="s">
         <v>51</v>
@@ -2677,10 +3154,15 @@
       <c r="G73" s="1">
         <v>44301</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="6"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74">
         <v>15</v>
@@ -2700,10 +3182,22 @@
       <c r="G74" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="1">
+        <v>44372</v>
+      </c>
+      <c r="I74" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J74" s="1">
+        <v>44372</v>
+      </c>
+      <c r="K74" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>15</v>
@@ -2723,10 +3217,22 @@
       <c r="G75" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="1">
+        <v>44372</v>
+      </c>
+      <c r="I75" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J75" s="1">
+        <v>44372</v>
+      </c>
+      <c r="K75" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76">
         <v>15</v>
@@ -2735,7 +3241,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
         <v>40</v>
@@ -2746,10 +3252,22 @@
       <c r="G76" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="1">
+        <v>44372</v>
+      </c>
+      <c r="I76" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J76" s="1">
+        <v>44372</v>
+      </c>
+      <c r="K76" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77">
         <v>15</v>
@@ -2769,10 +3287,22 @@
       <c r="G77" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="1">
+        <v>44372</v>
+      </c>
+      <c r="I77" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J77" s="1">
+        <v>44372</v>
+      </c>
+      <c r="K77" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78">
         <v>15</v>
@@ -2792,10 +3322,22 @@
       <c r="G78" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="1">
+        <v>44372</v>
+      </c>
+      <c r="I78" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J78" s="1">
+        <v>44372</v>
+      </c>
+      <c r="K78" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79">
         <v>15</v>
@@ -2804,7 +3346,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -2815,33 +3357,57 @@
       <c r="G79" s="1">
         <v>44309</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80">
+      <c r="H79" s="1">
+        <v>44374</v>
+      </c>
+      <c r="I79" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J79" s="1">
+        <v>44374</v>
+      </c>
+      <c r="K79" s="1">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="7">
         <v>16</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="7">
         <v>79</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="F80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="8">
         <v>44315</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="1">
+        <v>44374</v>
+      </c>
+      <c r="I80" s="1">
+        <v>44388</v>
+      </c>
+      <c r="J80" s="1">
+        <v>44374</v>
+      </c>
+      <c r="K80" s="1">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -2861,10 +3427,22 @@
       <c r="G81" s="1">
         <v>44315</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="1">
+        <v>44374</v>
+      </c>
+      <c r="I81" s="1">
+        <v>44388</v>
+      </c>
+      <c r="J81" s="1">
+        <v>44374</v>
+      </c>
+      <c r="K81" s="1">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -2873,7 +3451,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
@@ -2884,10 +3462,15 @@
       <c r="G82" s="1">
         <v>44315</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="6"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -2907,10 +3490,22 @@
       <c r="G83" s="1">
         <v>44315</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="1">
+        <v>44374</v>
+      </c>
+      <c r="I83" s="1">
+        <v>44388</v>
+      </c>
+      <c r="J83" s="1">
+        <v>44374</v>
+      </c>
+      <c r="K83" s="1">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -2930,10 +3525,22 @@
       <c r="G84" s="1">
         <v>44315</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="1">
+        <v>44374</v>
+      </c>
+      <c r="I84" s="1">
+        <v>44388</v>
+      </c>
+      <c r="J84" s="1">
+        <v>44374</v>
+      </c>
+      <c r="K84" s="1">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -2953,10 +3560,16 @@
       <c r="G85" s="1">
         <v>44322</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J85" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>17</v>
@@ -2976,10 +3589,16 @@
       <c r="G86" s="1">
         <v>44322</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J86" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -2999,10 +3618,16 @@
       <c r="G87" s="1">
         <v>44322</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J87" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88">
         <v>17</v>
@@ -3022,10 +3647,16 @@
       <c r="G88" s="1">
         <v>44322</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J88" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89">
         <v>17</v>
@@ -3044,6 +3675,553 @@
       </c>
       <c r="G89" s="1">
         <v>44322</v>
+      </c>
+      <c r="H89" s="1">
+        <v>44378</v>
+      </c>
+      <c r="J89" s="1">
+        <v>44380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1">
+        <v>44330</v>
+      </c>
+      <c r="H90" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J90" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="1">
+        <v>44330</v>
+      </c>
+      <c r="H91" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J91" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1">
+        <v>44330</v>
+      </c>
+      <c r="H92" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J92" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>44330</v>
+      </c>
+      <c r="H93" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J93" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1">
+        <v>44330</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J94" s="1">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1">
+        <v>44337</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="1">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="2">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2">
+        <v>29</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="3">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>72</v>
+      </c>
+      <c r="D108" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>81</v>
+      </c>
+      <c r="D109" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="4">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1">
+        <v>44358</v>
       </c>
     </row>
   </sheetData>

--- a/data/PlantingData.xlsx
+++ b/data/PlantingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86A129-A842-434B-AE46-A5BCB8393630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7BAED-2B63-4763-9342-367F14497078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
+    <workbookView xWindow="12624" yWindow="3072" windowWidth="17280" windowHeight="8964" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96:L96"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4094,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="2">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>49</v>
@@ -4117,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
         <v>43</v>
@@ -4140,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
         <v>62</v>
@@ -4163,7 +4163,7 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
         <v>66</v>
@@ -4186,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
         <v>33</v>
@@ -4209,7 +4209,7 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>

--- a/data/PlantingData.xlsx
+++ b/data/PlantingData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7BAED-2B63-4763-9342-367F14497078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED84E61-FE8B-4CE1-843D-F5EB0C469D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12624" yWindow="3072" windowWidth="17280" windowHeight="8964" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sporophytic" sheetId="1" r:id="rId1"/>
+    <sheet name="Gametophytic and PS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="69">
   <si>
     <t>Ramet</t>
   </si>
@@ -216,12 +217,6 @@
     <t>CMS_cold</t>
   </si>
   <si>
-    <t>chlorophyll</t>
-  </si>
-  <si>
-    <t>photosynthesis</t>
-  </si>
-  <si>
     <t>FR8</t>
   </si>
   <si>
@@ -244,6 +239,9 @@
   </si>
   <si>
     <t>chlorophyll_cold</t>
+  </si>
+  <si>
+    <t>chlorophyll_heat</t>
   </si>
 </sst>
 </file>
@@ -620,9 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2BDB9-DDA1-4456-B96B-B7C6BC14A59C}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,9 +629,10 @@
     <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,16 +661,13 @@
         <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -706,7 +702,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -741,7 +737,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -776,7 +772,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -811,7 +807,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -846,7 +842,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -881,7 +877,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -916,7 +912,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -951,7 +947,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -986,7 +982,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -997,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1021,7 +1017,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1087,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
@@ -1452,7 +1448,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
@@ -1487,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -1557,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -2101,7 +2097,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
         <v>51</v>
@@ -2268,7 +2264,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2338,7 +2334,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -2373,7 +2369,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
         <v>55</v>
@@ -2443,7 +2439,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -2469,7 +2465,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -2504,7 +2500,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>11</v>
@@ -2539,7 +2535,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -2574,7 +2570,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>11</v>
@@ -2644,7 +2640,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -2679,7 +2675,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -2714,7 +2710,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -2749,7 +2745,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -2784,7 +2780,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -2819,7 +2815,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>13</v>
@@ -2828,7 +2824,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
         <v>54</v>
@@ -2854,7 +2850,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>13</v>
@@ -2889,7 +2885,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>13</v>
@@ -2924,7 +2920,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>13</v>
@@ -2959,7 +2955,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>13</v>
@@ -2994,7 +2990,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -3003,7 +2999,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
@@ -3029,7 +3025,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>14</v>
@@ -3064,7 +3060,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -3099,7 +3095,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72">
         <v>14</v>
@@ -3134,7 +3130,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B73">
         <v>14</v>
@@ -3143,7 +3139,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
         <v>51</v>
@@ -3162,7 +3158,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <v>15</v>
@@ -3197,7 +3193,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75">
         <v>15</v>
@@ -3232,7 +3228,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76">
         <v>15</v>
@@ -3241,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
         <v>40</v>
@@ -3267,7 +3263,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77">
         <v>15</v>
@@ -3302,7 +3298,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>15</v>
@@ -3337,7 +3333,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79">
         <v>15</v>
@@ -3346,7 +3342,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -3372,7 +3368,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7">
         <v>16</v>
@@ -3407,7 +3403,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -3442,7 +3438,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -3451,7 +3447,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
@@ -3470,7 +3466,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -3505,7 +3501,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -3540,7 +3536,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -3563,13 +3559,19 @@
       <c r="H85" s="1">
         <v>44378</v>
       </c>
+      <c r="I85" s="1">
+        <v>44393</v>
+      </c>
       <c r="J85" s="1">
         <v>44380</v>
       </c>
+      <c r="K85" s="1">
+        <v>44395</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B86">
         <v>17</v>
@@ -3592,13 +3594,19 @@
       <c r="H86" s="1">
         <v>44378</v>
       </c>
+      <c r="I86" s="1">
+        <v>44393</v>
+      </c>
       <c r="J86" s="1">
         <v>44380</v>
       </c>
+      <c r="K86" s="1">
+        <v>44395</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -3621,13 +3629,19 @@
       <c r="H87" s="1">
         <v>44378</v>
       </c>
+      <c r="I87" s="1">
+        <v>44393</v>
+      </c>
       <c r="J87" s="1">
         <v>44380</v>
       </c>
+      <c r="K87" s="1">
+        <v>44395</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>17</v>
@@ -3650,13 +3664,19 @@
       <c r="H88" s="1">
         <v>44378</v>
       </c>
+      <c r="I88" s="1">
+        <v>44393</v>
+      </c>
       <c r="J88" s="1">
         <v>44380</v>
       </c>
+      <c r="K88" s="1">
+        <v>44395</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B89">
         <v>17</v>
@@ -3679,13 +3699,19 @@
       <c r="H89" s="1">
         <v>44378</v>
       </c>
+      <c r="I89" s="1">
+        <v>44393</v>
+      </c>
       <c r="J89" s="1">
         <v>44380</v>
       </c>
+      <c r="K89" s="1">
+        <v>44395</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90">
         <v>18</v>
@@ -3708,13 +3734,19 @@
       <c r="H90" s="1">
         <v>44386</v>
       </c>
+      <c r="I90" s="1">
+        <v>44395</v>
+      </c>
       <c r="J90" s="1">
         <v>44387</v>
       </c>
+      <c r="K90" s="1">
+        <v>44397</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B91">
         <v>18</v>
@@ -3737,13 +3769,19 @@
       <c r="H91" s="1">
         <v>44386</v>
       </c>
+      <c r="I91" s="1">
+        <v>44395</v>
+      </c>
       <c r="J91" s="1">
         <v>44387</v>
       </c>
+      <c r="K91" s="1">
+        <v>44397</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -3766,13 +3804,19 @@
       <c r="H92" s="1">
         <v>44386</v>
       </c>
+      <c r="I92" s="1">
+        <v>44395</v>
+      </c>
       <c r="J92" s="1">
         <v>44387</v>
       </c>
+      <c r="K92" s="1">
+        <v>44397</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93">
         <v>18</v>
@@ -3795,13 +3839,19 @@
       <c r="H93" s="1">
         <v>44386</v>
       </c>
+      <c r="I93" s="1">
+        <v>44395</v>
+      </c>
       <c r="J93" s="1">
         <v>44387</v>
       </c>
+      <c r="K93" s="1">
+        <v>44397</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B94">
         <v>18</v>
@@ -3810,7 +3860,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -3824,13 +3874,19 @@
       <c r="H94" s="1">
         <v>44386</v>
       </c>
+      <c r="I94" s="1">
+        <v>44395</v>
+      </c>
       <c r="J94" s="1">
         <v>44387</v>
       </c>
+      <c r="K94" s="1">
+        <v>44397</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -3850,10 +3906,22 @@
       <c r="G95" s="1">
         <v>44337</v>
       </c>
+      <c r="H95" s="1">
+        <v>44394</v>
+      </c>
+      <c r="I95" s="1">
+        <v>44405</v>
+      </c>
+      <c r="J95" s="1">
+        <v>44394</v>
+      </c>
+      <c r="K95" s="1">
+        <v>44407</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -3873,15 +3941,23 @@
       <c r="G96" s="1">
         <v>44337</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="H96" s="8">
+        <v>44394</v>
+      </c>
+      <c r="I96" s="1">
+        <v>44405</v>
+      </c>
+      <c r="J96" s="8">
+        <v>44394</v>
+      </c>
+      <c r="K96" s="8">
+        <v>44407</v>
+      </c>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97">
         <v>19</v>
@@ -3890,7 +3966,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>34</v>
@@ -3901,10 +3977,22 @@
       <c r="G97" s="1">
         <v>44337</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="1">
+        <v>44394</v>
+      </c>
+      <c r="I97" s="1">
+        <v>44405</v>
+      </c>
+      <c r="J97" s="1">
+        <v>44394</v>
+      </c>
+      <c r="K97" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B98">
         <v>19</v>
@@ -3924,10 +4012,22 @@
       <c r="G98" s="1">
         <v>44337</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="8">
+        <v>44394</v>
+      </c>
+      <c r="I98" s="1">
+        <v>44405</v>
+      </c>
+      <c r="J98" s="8">
+        <v>44394</v>
+      </c>
+      <c r="K98" s="8">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99">
         <v>19</v>
@@ -3947,10 +4047,22 @@
       <c r="G99" s="1">
         <v>44337</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="1">
+        <v>44394</v>
+      </c>
+      <c r="I99" s="1">
+        <v>44405</v>
+      </c>
+      <c r="J99" s="1">
+        <v>44394</v>
+      </c>
+      <c r="K99" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B100">
         <v>20</v>
@@ -3970,10 +4082,22 @@
       <c r="G100" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I100" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J100" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K100" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B101">
         <v>20</v>
@@ -3993,10 +4117,22 @@
       <c r="G101" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I101" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J101" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K101" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B102">
         <v>20</v>
@@ -4016,10 +4152,22 @@
       <c r="G102" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I102" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J102" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K102" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -4039,10 +4187,22 @@
       <c r="G103" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I103" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J103" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K103" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B104">
         <v>20</v>
@@ -4051,7 +4211,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
         <v>53</v>
@@ -4062,10 +4222,22 @@
       <c r="G104" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I104" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J104" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K104" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <v>20</v>
@@ -4074,7 +4246,7 @@
         <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
@@ -4085,8 +4257,20 @@
       <c r="G105" s="1">
         <v>44344</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H105" s="1">
+        <v>44398</v>
+      </c>
+      <c r="I105" s="1">
+        <v>44403</v>
+      </c>
+      <c r="J105" s="1">
+        <v>44398</v>
+      </c>
+      <c r="K105" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>56</v>
       </c>
@@ -4108,8 +4292,20 @@
       <c r="G106" s="3">
         <v>44358</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="3">
+        <v>44406</v>
+      </c>
+      <c r="I106" s="3">
+        <v>44407</v>
+      </c>
+      <c r="J106" s="3">
+        <v>44406</v>
+      </c>
+      <c r="K106" s="3">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -4131,10 +4327,22 @@
       <c r="G107" s="1">
         <v>44358</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="1">
+        <v>44406</v>
+      </c>
+      <c r="I107" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J107" s="1">
+        <v>44406</v>
+      </c>
+      <c r="K107" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B108">
         <v>14</v>
@@ -4143,7 +4351,7 @@
         <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
         <v>51</v>
@@ -4154,10 +4362,14 @@
       <c r="G108" s="4">
         <v>44358</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -4166,7 +4378,7 @@
         <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E109" t="s">
         <v>40</v>
@@ -4177,10 +4389,14 @@
       <c r="G109" s="1">
         <v>44358</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B110">
         <v>19</v>
@@ -4200,8 +4416,20 @@
       <c r="G110" s="4">
         <v>44358</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="1">
+        <v>44406</v>
+      </c>
+      <c r="I110" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J110" s="1">
+        <v>44406</v>
+      </c>
+      <c r="K110" s="1">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>56</v>
       </c>
@@ -4223,8 +4451,26 @@
       <c r="G111" s="1">
         <v>44358</v>
       </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5F978-1CB9-4F8E-A0CD-EE0A5A02EA8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/PlantingData.xlsx
+++ b/data/PlantingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED84E61-FE8B-4CE1-843D-F5EB0C469D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAAC23F-FC16-490C-874F-611CC08384C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
+    <workbookView xWindow="3132" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{FFAFF3EB-B419-47E1-98F1-7FCFAB378E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sporophytic" sheetId="1" r:id="rId1"/>
@@ -618,9 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2BDB9-DDA1-4456-B96B-B7C6BC14A59C}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4465,7 +4465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5F978-1CB9-4F8E-A0CD-EE0A5A02EA8E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
